--- a/Audit/Audit-SEO.xlsx
+++ b/Audit/Audit-SEO.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4537ebf2a503e321/Bibliothèque/Programmation/Formation openclassroom/P4 Optimisez un site web existant/Projet/Audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{89038927-7248-451E-857B-5DEA74082580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:4000b_{89038927-7248-451E-857B-5DEA74082580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B27FC54-650A-4296-ADE5-FDFC6C54A567}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$2:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$2:$F$20</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -353,15 +353,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F121" totalsRowShown="0">
-  <autoFilter ref="A1:F121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:F121" totalsRowShown="0">
+  <autoFilter ref="A1:F121" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Colonne1"/>
-    <tableColumn id="2" name="Colonne2"/>
-    <tableColumn id="3" name="Colonne3"/>
-    <tableColumn id="4" name="Colonne4"/>
-    <tableColumn id="5" name="Colonne5"/>
-    <tableColumn id="6" name="Colonne6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Colonne2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Colonne3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Colonne4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Colonne5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Colonne6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1813,9 +1813,9 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094502" right="0.23622047244094502" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992126012" footer="0.31496062992126012"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>